--- a/Testing/Ash Chamber Sensor Testing/Testing 29 Aug/OPC and PMS Chamber testing 29Aug.xlsx
+++ b/Testing/Ash Chamber Sensor Testing/Testing 29 Aug/OPC and PMS Chamber testing 29Aug.xlsx
@@ -650,7 +650,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -664,13 +664,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>ISO</a:t>
+              <a:t>ISO A2 Fine Test Dust</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> A2 Fine Test Dust</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-NZ"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -687,7 +682,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -12511,7 +12506,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -12543,7 +12538,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -12581,7 +12576,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -12628,7 +12623,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -12641,14 +12636,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-NZ"/>
                   <a:t>Concentration (mg/m^3)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-NZ" sz="1200">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -12665,7 +12655,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -12703,7 +12693,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -12745,7 +12735,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -12785,7 +12775,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -20951,7 +20941,7 @@
   <dimension ref="A1:T1223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testing/Ash Chamber Sensor Testing/Testing 29 Aug/OPC and PMS Chamber testing 29Aug.xlsx
+++ b/Testing/Ash Chamber Sensor Testing/Testing 29 Aug/OPC and PMS Chamber testing 29Aug.xlsx
@@ -12346,10 +12346,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -20941,7 +20938,7 @@
   <dimension ref="A1:T1223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
